--- a/Logboek SmartApps.xlsx
+++ b/Logboek SmartApps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69BBF508-1E0E-4E79-B322-FB42494559B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC007E6A-8EF8-4422-A871-3D60F3AB38C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogBoek" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>niets</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Cursus verder gezet</t>
+  </si>
+  <si>
+    <t>Youtube/vs Code</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -632,6 +641,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -685,7 +697,7 @@
     <cellStyle name="Verklarende tekst" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Waarschuwingstekst" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -710,13 +722,16 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,16 +747,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Gegevens" displayName="Gegevens" ref="B2:G13" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="B2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Gegevens" displayName="Gegevens" ref="B2:H13" totalsRowCount="1" headerRowDxfId="5">
+  <autoFilter ref="B2:H12" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{2431C72F-97F2-400E-95DA-C8D0DBB366DC}" name="Week" dataDxfId="2" dataCellStyle="Datum"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum" totalsRowLabel="Totaal" dataCellStyle="Datum">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
@@ -991,7 +1008,7 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -1000,16 +1017,16 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1019,124 +1036,170 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:7" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>44206</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>44237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
+    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>44265</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44449</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="6"/>
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44418</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="6"/>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="6"/>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="6"/>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="6"/>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <f>SUBTOTAL(109,Gegevens[Tijdsspendering])</f>
-        <v>3.5</v>
-      </c>
-      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
         <f>SUBTOTAL(109,Gegevens[Voorbereidingen])</f>
         <v>0</v>
       </c>
@@ -1145,23 +1208,24 @@
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Maak in dit werkblad een creditcardlogboek" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="De titel van dit werkblad staat in deze cel. Voer de naam van de creditcard in om de titel bij te werken" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze kop de datum in" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst een omschrijving in" sqref="C2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst het bedrag in" sqref="D2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze kop de naam van de winkel in" sqref="E2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst de transactiekosten in" sqref="F2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze kop de datum in" sqref="B2:C2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst een omschrijving in" sqref="D2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst het bedrag in" sqref="E2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze kop de naam van de winkel in" sqref="F2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Voer in deze kolom onder deze koptekst de transactiekosten in" sqref="G2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{06E9A4D1-AB1E-4568-BDFE-90547968EFC2}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{06E9A4D1-AB1E-4568-BDFE-90547968EFC2}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{97C92948-23B5-4C8F-B328-57FC146FA60B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Logboek SmartApps.xlsx
+++ b/Logboek SmartApps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC007E6A-8EF8-4422-A871-3D60F3AB38C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7506AA-8AF7-4F72-9159-218759F7EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogBoek" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>Youtube/vs Code</t>
+  </si>
+  <si>
+    <t>zelf beetje gespeeld met die react omgeving</t>
+  </si>
+  <si>
+    <t>vs code</t>
+  </si>
+  <si>
+    <t>14/10/21</t>
+  </si>
+  <si>
+    <t>Gewerkt aan Wireframes</t>
+  </si>
+  <si>
+    <t>Gewerkt aan Wireframes (logo, naam, plaftorm zoeken en beetje gewerkt eraan)</t>
+  </si>
+  <si>
+    <t>https://wireframepro.mockflow.com</t>
   </si>
 </sst>
 </file>
@@ -630,9 +648,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,6 +659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -722,13 +740,13 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -747,8 +765,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Gegevens" displayName="Gegevens" ref="B2:H13" totalsRowCount="1" headerRowDxfId="5">
-  <autoFilter ref="B2:H12" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Gegevens" displayName="Gegevens" ref="B2:H14" totalsRowCount="1" headerRowDxfId="5">
+  <autoFilter ref="B2:H13" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -758,14 +776,14 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{2431C72F-97F2-400E-95DA-C8D0DBB366DC}" name="Week" dataDxfId="2" dataCellStyle="Datum"/>
+    <tableColumn id="7" xr3:uid="{2431C72F-97F2-400E-95DA-C8D0DBB366DC}" name="Week" dataDxfId="4" dataCellStyle="Datum"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum" totalsRowLabel="Totaal" dataCellStyle="Datum">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Omschrijving"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tijdsspendering" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tijdsspendering" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Komma"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Platform"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Voorbereidingen" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Voorbereidingen" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="6" xr3:uid="{730F2414-7489-4147-A4F6-0ACC1A6FD4AC}" name="Link?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1008,25 +1026,25 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1036,31 +1054,31 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="9">
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -1075,12 +1093,12 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9">
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -1095,15 +1113,15 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="B5" s="9">
+    <row r="5" spans="2:8" ht="69.599999999999994" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1118,12 +1136,12 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -1138,13 +1156,13 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="1">
@@ -1159,47 +1177,89 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="9"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44510</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44540</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="E11" s="4"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="E12" s="4"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="9">
         <f>SUBTOTAL(109,Gegevens[Tijdsspendering])</f>
-        <v>6</v>
-      </c>
-      <c r="G13" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="G14" s="5">
         <f>SUBTOTAL(109,Gegevens[Voorbereidingen])</f>
         <v>0</v>
       </c>

--- a/Logboek SmartApps.xlsx
+++ b/Logboek SmartApps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7506AA-8AF7-4F72-9159-218759F7EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E6791-21CF-4BE6-A2C6-C124B8783F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogBoek" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>https://wireframepro.mockflow.com</t>
+  </si>
+  <si>
+    <t>17/10/21</t>
+  </si>
+  <si>
+    <t>Wireframs van eerste zicht</t>
+  </si>
+  <si>
+    <t>21/10/21</t>
+  </si>
+  <si>
+    <t>React project gedownload</t>
   </si>
 </sst>
 </file>
@@ -660,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1029,22 +1041,22 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1066,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1077,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="69.599999999999994" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -1161,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -1179,7 +1191,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -1197,7 +1209,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
         <v>3</v>
       </c>
@@ -1215,7 +1227,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -1233,31 +1245,55 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="4"/>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="4"/>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="E13" s="4"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="9">
         <f>SUBTOTAL(109,Gegevens[Tijdsspendering])</f>
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="G14" s="5">
         <f>SUBTOTAL(109,Gegevens[Voorbereidingen])</f>
